--- a/testy_stat.xlsx
+++ b/testy_stat.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="r.normlany-testy" sheetId="1" r:id="rId1"/>
     <sheet name="t-stdunet testy" sheetId="2" r:id="rId2"/>
     <sheet name="wariancja-testy" sheetId="3" r:id="rId3"/>
     <sheet name="frakcje-testy" sheetId="4" r:id="rId4"/>
+    <sheet name="zad29" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>1.</t>
   </si>
@@ -174,6 +175,27 @@
   </si>
   <si>
     <t>Przy poziomie istotności 0,05 można stwierdzić że 70% klientów tej firmy jest zadowolonych</t>
+  </si>
+  <si>
+    <t>waga=</t>
+  </si>
+  <si>
+    <t>H1=</t>
+  </si>
+  <si>
+    <t>waga!=</t>
+  </si>
+  <si>
+    <t>Wk=</t>
+  </si>
+  <si>
+    <t>Wartosć wpada w obszar krytyczny więc odrzucamy H0</t>
+  </si>
+  <si>
+    <t>Wnisoek:</t>
+  </si>
+  <si>
+    <t>przy poziomie istotnosaci 0,01 można stwierdzic że średnia waga konserw nie jest równa 250</t>
   </si>
 </sst>
 </file>
@@ -564,6 +586,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>270953</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6976553" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381875" y="762000"/>
+          <a:ext cx="3648075" cy="2000537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
@@ -1209,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,4 +1409,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A9:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <f>(B13-C9)/(B14/SQRT(B12))</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <f>_xlfn.NORM.S.INV(B18)</f>
+        <v>-2.5758293035488999</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <f>B17/2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>